--- a/mControl_produccion/formatos/CAJA3.xlsx
+++ b/mControl_produccion/formatos/CAJA3.xlsx
@@ -25,31 +25,31 @@
     <t>Fecha de Transacción</t>
   </si>
   <si>
-    <t>05/11/2019</t>
+    <t>03/03/2021</t>
   </si>
   <si>
     <t>Hora de Transacción</t>
   </si>
   <si>
-    <t>08:15:00</t>
+    <t>11:53:06</t>
   </si>
   <si>
     <t>Número de Control</t>
   </si>
   <si>
-    <t>2019110534814417905</t>
+    <t>202103035371154316461</t>
   </si>
   <si>
     <t>Código de Autorización</t>
   </si>
   <si>
-    <t>000486</t>
+    <t>939865</t>
   </si>
   <si>
     <t>Número de Tarjeta</t>
   </si>
   <si>
-    <t>491566******7905</t>
+    <t>636318******6461</t>
   </si>
   <si>
     <t>Tipo de Transacción</t>
@@ -67,13 +67,13 @@
     <t>Monto</t>
   </si>
   <si>
-    <t>150.15</t>
+    <t>156.2</t>
   </si>
   <si>
     <t>Referencia</t>
   </si>
   <si>
-    <t>672949467779</t>
+    <t>913935119303</t>
   </si>
   <si>
     <t>Referencia 1</t>
@@ -136,13 +136,13 @@
     <t>Banco Emisor</t>
   </si>
   <si>
-    <t xml:space="preserve">BANORTE   </t>
+    <t xml:space="preserve">EDENRED   </t>
   </si>
   <si>
     <t>Marca de Tarjeta</t>
   </si>
   <si>
-    <t xml:space="preserve">VISA      </t>
+    <t xml:space="preserve">CARNET    </t>
   </si>
   <si>
     <t>Tipo de Tarjeta</t>
@@ -486,7 +486,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:AB7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:AB7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
